--- a/Picture-Based Learning/data_pic.xlsx
+++ b/Picture-Based Learning/data_pic.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QuestionBank-Workflow\General Awareness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QuestionBank-Workflow\Picture-Based Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA39634-FF07-42B9-BCA6-68B49602E6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D828F7-E4BE-465B-8D9D-E7B968EFAF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14784" yWindow="816" windowWidth="8256" windowHeight="11424" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curr Symb" sheetId="1" r:id="rId1"/>
-    <sheet name="states" sheetId="2" r:id="rId2"/>
+    <sheet name="flags" sheetId="3" r:id="rId2"/>
+    <sheet name="monumentsindiaTaj Mahal" sheetId="4" r:id="rId3"/>
+    <sheet name="states" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Curr Symb'!$A$1:$A$28</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Ruble</t>
   </si>
@@ -191,13 +193,163 @@
   </si>
   <si>
     <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Taj Mahal</t>
+  </si>
+  <si>
+    <t>Golden Temple</t>
+  </si>
+  <si>
+    <t>Qutub Minar</t>
+  </si>
+  <si>
+    <t>Hawa Mahal</t>
+  </si>
+  <si>
+    <t>Gateway of India</t>
+  </si>
+  <si>
+    <t>Meenakshi Temple</t>
+  </si>
+  <si>
+    <t>Red Fort</t>
+  </si>
+  <si>
+    <t>India Gate</t>
+  </si>
+  <si>
+    <t>Konark Sun Temple</t>
+  </si>
+  <si>
+    <t>Charminar</t>
+  </si>
+  <si>
+    <t>Sanchi Stupa</t>
+  </si>
+  <si>
+    <t>Gol Gumbaz</t>
+  </si>
+  <si>
+    <t>Jama Masjid</t>
+  </si>
+  <si>
+    <t>Jantar Mantar</t>
+  </si>
+  <si>
+    <t>Buland Darwaza</t>
+  </si>
+  <si>
+    <t>Gwalior Fort</t>
+  </si>
+  <si>
+    <t>Victoria Memorial</t>
+  </si>
+  <si>
+    <t>Shore Temple</t>
+  </si>
+  <si>
+    <t>Rani ki Vav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +364,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -237,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -247,6 +405,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,11 +840,305 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125D06D3-5D79-415A-9FDA-DCA0BAF93D95}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A31">
+    <sortCondition ref="A1:A31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D26234-838A-42CF-8BDC-E49C41CA536F}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8026F1A8-FF90-4A7C-8A05-3062B0EF3E2B}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Picture-Based Learning/data_pic.xlsx
+++ b/Picture-Based Learning/data_pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QuestionBank-Workflow\Picture-Based Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D828F7-E4BE-465B-8D9D-E7B968EFAF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C8217-A5F8-4BD1-AC6D-8BA7B9F84B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Ruble</t>
   </si>
@@ -343,6 +343,21 @@
   </si>
   <si>
     <t>Rani ki Vav</t>
+  </si>
+  <si>
+    <t>Humayun’s Tomb</t>
+  </si>
+  <si>
+    <t>Mysore Palace</t>
+  </si>
+  <si>
+    <t>Lotus Temple</t>
+  </si>
+  <si>
+    <t>Bibi Ka Maqbara</t>
+  </si>
+  <si>
+    <t>Mahabodhi Temple</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D26234-838A-42CF-8BDC-E49C41CA536F}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,6 +1137,31 @@
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Picture-Based Learning/data_pic.xlsx
+++ b/Picture-Based Learning/data_pic.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QuestionBank-Workflow\Picture-Based Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2C8217-A5F8-4BD1-AC6D-8BA7B9F84B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0217573-DB17-491C-AAAB-C60A5A80E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curr Symb" sheetId="1" r:id="rId1"/>
     <sheet name="flags" sheetId="3" r:id="rId2"/>
-    <sheet name="monumentsindiaTaj Mahal" sheetId="4" r:id="rId3"/>
+    <sheet name="monumentsindia" sheetId="4" r:id="rId3"/>
     <sheet name="states" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D26234-838A-42CF-8BDC-E49C41CA536F}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Picture-Based Learning/data_pic.xlsx
+++ b/Picture-Based Learning/data_pic.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QuestionBank-Workflow\Picture-Based Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0217573-DB17-491C-AAAB-C60A5A80E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F222E-7254-46A4-BB62-F97B40406FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curr Symb" sheetId="1" r:id="rId1"/>
     <sheet name="flags" sheetId="3" r:id="rId2"/>
     <sheet name="monumentsindia" sheetId="4" r:id="rId3"/>
-    <sheet name="states" sheetId="2" r:id="rId4"/>
+    <sheet name="logo india" sheetId="5" r:id="rId4"/>
+    <sheet name="states" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Curr Symb'!$A$1:$A$28</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Ruble</t>
   </si>
@@ -358,6 +359,225 @@
   </si>
   <si>
     <t>Mahabodhi Temple</t>
+  </si>
+  <si>
+    <t>Apollo Hospitals</t>
+  </si>
+  <si>
+    <t>Ashok Leyland</t>
+  </si>
+  <si>
+    <t>Asian Paints</t>
+  </si>
+  <si>
+    <t>Axis Bank</t>
+  </si>
+  <si>
+    <t>Bajaj</t>
+  </si>
+  <si>
+    <t>Bandhan Bank</t>
+  </si>
+  <si>
+    <t>Bank of Baroda</t>
+  </si>
+  <si>
+    <t>Bharat Electronics</t>
+  </si>
+  <si>
+    <t>Bharat Petroleum</t>
+  </si>
+  <si>
+    <t>Airtel</t>
+  </si>
+  <si>
+    <t>Coal India</t>
+  </si>
+  <si>
+    <t>Biocon</t>
+  </si>
+  <si>
+    <t>Cholamandalam</t>
+  </si>
+  <si>
+    <t>Canara Bank</t>
+  </si>
+  <si>
+    <t>Britannia</t>
+  </si>
+  <si>
+    <t>Container Corporation</t>
+  </si>
+  <si>
+    <t>Dabur</t>
+  </si>
+  <si>
+    <t>Havells</t>
+  </si>
+  <si>
+    <t>Aditya Birla</t>
+  </si>
+  <si>
+    <t>GAIL</t>
+  </si>
+  <si>
+    <t>DrReddys</t>
+  </si>
+  <si>
+    <t>DLF</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Reliance</t>
+  </si>
+  <si>
+    <t>Flipkart</t>
+  </si>
+  <si>
+    <t>To Be Created</t>
+  </si>
+  <si>
+    <t>Hindustan Aeronautics</t>
+  </si>
+  <si>
+    <t>Hindustan Zinc</t>
+  </si>
+  <si>
+    <t>ICICI Bank</t>
+  </si>
+  <si>
+    <t>IndiaMART</t>
+  </si>
+  <si>
+    <t>Indian Energy Exchange</t>
+  </si>
+  <si>
+    <t>Indian Oil</t>
+  </si>
+  <si>
+    <t>IndusInd Bank</t>
+  </si>
+  <si>
+    <t>IndiGo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRCTC </t>
+  </si>
+  <si>
+    <t>ITC</t>
+  </si>
+  <si>
+    <t>JSW Steel</t>
+  </si>
+  <si>
+    <t>Kotak Mahindra Bank</t>
+  </si>
+  <si>
+    <t>Larsen &amp; Toubro</t>
+  </si>
+  <si>
+    <t>Mahindra &amp; Mahindra</t>
+  </si>
+  <si>
+    <t>Manappuram Finance</t>
+  </si>
+  <si>
+    <t>Maruti Suzuki</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>Nazara Technologies</t>
+  </si>
+  <si>
+    <t>NTPC</t>
+  </si>
+  <si>
+    <t>Nykaa</t>
+  </si>
+  <si>
+    <t>ONGC</t>
+  </si>
+  <si>
+    <t>Page Industries</t>
+  </si>
+  <si>
+    <t>Pidilite</t>
+  </si>
+  <si>
+    <t>Prestige Estates Projects</t>
+  </si>
+  <si>
+    <t>PVR</t>
+  </si>
+  <si>
+    <t>Relaxo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBI </t>
+  </si>
+  <si>
+    <t>Shree Cement</t>
+  </si>
+  <si>
+    <t>SKF</t>
+  </si>
+  <si>
+    <t>Sterlite Technologies</t>
+  </si>
+  <si>
+    <t>Sun Pharmaceutical</t>
+  </si>
+  <si>
+    <t>Sundaram Finance</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata Elxsi </t>
+  </si>
+  <si>
+    <t>Titan Company</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t>Triveni Turbine</t>
+  </si>
+  <si>
+    <t>TVS</t>
+  </si>
+  <si>
+    <t>UltraTech Cement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Spirits </t>
+  </si>
+  <si>
+    <t>Vedanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltas </t>
+  </si>
+  <si>
+    <t>Wipro</t>
+  </si>
+  <si>
+    <t>Zomato</t>
+  </si>
+  <si>
+    <t>Groww</t>
   </si>
 </sst>
 </file>
@@ -858,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125D06D3-5D79-415A-9FDA-DCA0BAF93D95}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1035,7 +1255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D26234-838A-42CF-8BDC-E49C41CA536F}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1174,10 +1394,343 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72734510-1F01-4A03-9708-779A81CAF2E5}">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8026F1A8-FF90-4A7C-8A05-3062B0EF3E2B}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>

--- a/Picture-Based Learning/data_pic.xlsx
+++ b/Picture-Based Learning/data_pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QuestionBank-Workflow\Picture-Based Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F222E-7254-46A4-BB62-F97B40406FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CFA37E-6A0A-44FF-A32D-1698579F74AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curr Symb" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Ruble</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>Groww</t>
+  </si>
+  <si>
+    <t>Dong</t>
   </si>
 </sst>
 </file>
@@ -924,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1063,6 +1066,11 @@
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8026F1A8-FF90-4A7C-8A05-3062B0EF3E2B}">
   <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
